--- a/data/Incredibuild/Customer sales data/June 2023 Incredibuild Customer Survey All except China and Japan Results v1.xlsx
+++ b/data/Incredibuild/Customer sales data/June 2023 Incredibuild Customer Survey All except China and Japan Results v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariel_cohen_codar/Box Sync/Q2 2023 Blue Currency - Org Scaling/03 Team Working Folders/5. Ariel/code/org-scaling-diagnostic/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariel_cohen_codar/Box Sync/Q2 2023 Blue Currency - Org Scaling/03 Team Working Folders/5. Ariel/org-scaling-diagnostic/data/Incredibuild/Customer sales data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCF2B6BD-9081-074D-96E6-40E53042BBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B77C386-B632-524E-AD1A-2F934D7E7138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NPS" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="6" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2664,10 +2664,10 @@
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -14402,8 +14402,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E379B46-FAF1-48A9-8DC7-A8CA545B787E}" name="PivotTable17" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showError="1" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Score">
-  <location ref="P5:S11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB4D6693-D05E-4765-8A8D-A6BF4F501020}" name="PivotTable20" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showError="1" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Score">
+  <location ref="F26:I42" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="82">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -14619,13 +14619,25 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="6">
+      <items count="16">
+        <item x="14"/>
+        <item x="7"/>
+        <item x="4"/>
         <item x="1"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="2"/>
         <item x="3"/>
-        <item x="2"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="13"/>
+        <item x="10"/>
         <item x="0"/>
-        <item x="4"/>
+        <item x="5"/>
+        <item x="12"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -14634,14 +14646,12 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="73"/>
+    <field x="75"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="16">
     <i>
       <x/>
     </i>
@@ -14656,6 +14666,36 @@
     </i>
     <i>
       <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
     </i>
     <i t="grand">
       <x/>
@@ -14681,7 +14721,7 @@
   <dataFields count="3">
     <dataField name="NPS " fld="81" baseField="0" baseItem="0" numFmtId="166"/>
     <dataField name="Responders" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Average of % from original " fld="18" subtotal="average" baseField="73" baseItem="2" numFmtId="9"/>
+    <dataField name="Average of % from original " fld="18" subtotal="average" baseField="75" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="1">
     <format dxfId="0">
@@ -14707,8 +14747,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{82AF9635-F51E-4B57-AEE7-5326D9523D8D}" name="PivotTable16" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showError="1" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Score">
-  <location ref="K5:N20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{44EEF165-CEBA-43E0-8111-7641A56EC914}" name="PivotTable6" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Score">
+  <location ref="A49:G54" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="82">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -14847,7 +14887,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="166" showAll="0"/>
-    <pivotField dataField="1" numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -14861,83 +14901,16 @@
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="15">
-        <item x="7"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
         <item x="5"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="2"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -14949,36 +14922,69 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="70"/>
+    <field x="72"/>
   </rowFields>
-  <rowItems count="15">
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
+  <rowItems count="4">
     <i>
       <x/>
     </i>
@@ -14986,49 +14992,47 @@
       <x v="1"/>
     </i>
     <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="6"/>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="-2"/>
+    <field x="20"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="6">
     <i>
       <x/>
     </i>
-    <i i="1">
+    <i>
       <x v="1"/>
     </i>
-    <i i="2">
+    <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
     </i>
   </colItems>
   <pageFields count="1">
     <pageField fld="2" hier="-1"/>
   </pageFields>
-  <dataFields count="3">
-    <dataField name="NPS " fld="81" baseField="0" baseItem="0" numFmtId="166"/>
-    <dataField name="Responders" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Average of % from original " fld="18" subtotal="average" baseField="70" baseItem="13" numFmtId="9"/>
+  <dataFields count="1">
+    <dataField name="Average of % from original " fld="18" subtotal="average" baseField="72" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="1">
     <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -15047,8 +15051,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{44EEF165-CEBA-43E0-8111-7641A56EC914}" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Score">
-  <location ref="A49:G54" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5C267772-C514-4769-8F6B-AC89CA9FA346}" name="PivotTable14" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Score">
+  <location ref="F5:I9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="82">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -15187,7 +15191,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="166" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField dataField="1" numFmtId="166" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -15201,17 +15205,7 @@
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="7">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -15279,7 +15273,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="72"/>
@@ -15299,32 +15293,25 @@
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="20"/>
+    <field x="-2"/>
   </colFields>
-  <colItems count="6">
+  <colItems count="3">
     <i>
       <x/>
     </i>
-    <i>
+    <i i="1">
       <x v="1"/>
     </i>
-    <i>
+    <i i="2">
       <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
     </i>
   </colItems>
   <pageFields count="1">
     <pageField fld="2" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
+  <dataFields count="3">
+    <dataField name="NPS " fld="81" baseField="0" baseItem="0" numFmtId="166"/>
+    <dataField name="Responders" fld="6" baseField="0" baseItem="0"/>
     <dataField name="Average of % from original " fld="18" subtotal="average" baseField="72" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="1">
@@ -15332,7 +15319,7 @@
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -15351,8 +15338,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E085A2C6-A986-4685-9E35-919017C55253}" name="PivotTable21" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Score">
-  <location ref="K26:N31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABD0230C-1B07-447E-909C-0A7273765C6F}" name="PivotTable18" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showError="1" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Score">
+  <location ref="A26:D41" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="82">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -15569,14 +15556,22 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="5">
+      <items count="15">
+        <item x="10"/>
+        <item x="7"/>
+        <item x="12"/>
         <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="13"/>
         <item x="2"/>
-        <item x="1"/>
+        <item x="9"/>
+        <item x="5"/>
         <item x="3"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -15584,12 +15579,14 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="76"/>
+    <field x="74"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="15">
     <i>
       <x/>
     </i>
@@ -15601,6 +15598,36 @@
     </i>
     <i>
       <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
     </i>
     <i t="grand">
       <x/>
@@ -15626,7 +15653,7 @@
   <dataFields count="3">
     <dataField name="NPS " fld="81" baseField="0" baseItem="0" numFmtId="166"/>
     <dataField name="Responders" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Average of % from original " fld="18" subtotal="average" baseField="76" baseItem="1" numFmtId="9"/>
+    <dataField name="Average of % from original " fld="18" subtotal="average" baseField="74" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="1">
     <format dxfId="3">
@@ -15652,8 +15679,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56C418BC-43AD-44D7-AEB0-57DDC783444B}" name="PivotTable13" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Score">
-  <location ref="A5:C17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E085A2C6-A986-4685-9E35-919017C55253}" name="PivotTable21" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Score">
+  <location ref="K26:N31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="82">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -15793,19 +15820,91 @@
     <pivotField showAll="0"/>
     <pivotField numFmtId="166" showAll="0"/>
     <pivotField dataField="1" numFmtId="166" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" sortType="descending">
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item x="6"/>
-        <item x="7"/>
+      <items count="5">
+        <item x="0"/>
         <item x="2"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="4"/>
-        <item x="8"/>
+        <item x="1"/>
         <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -15813,81 +15912,12 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="7"/>
+    <field x="76"/>
   </rowFields>
-  <rowItems count="12">
+  <rowItems count="5">
     <i>
       <x/>
     </i>
@@ -15900,27 +15930,6 @@
     <i>
       <x v="3"/>
     </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -15928,27 +15937,31 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="3">
     <i>
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
     </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
   </colItems>
   <pageFields count="1">
     <pageField fld="2" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
+  <dataFields count="3">
     <dataField name="NPS " fld="81" baseField="0" baseItem="0" numFmtId="166"/>
     <dataField name="Responders" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Average of % from original " fld="18" subtotal="average" baseField="76" baseItem="1" numFmtId="9"/>
   </dataFields>
   <formats count="1">
     <format dxfId="4">
-      <pivotArea field="7" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -15967,200 +15980,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{512A6131-A5AB-4514-8174-F6C4856C9EDC}" name="PivotTable19" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Score">
-  <location ref="X5:Z20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="82">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField dataField="1" numFmtId="166" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" sortType="descending">
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="15">
-        <item x="10"/>
-        <item x="7"/>
-        <item x="12"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="13"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="74"/>
-  </rowFields>
-  <rowItems count="15">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="NPS " fld="81" baseField="0" baseItem="0" numFmtId="166"/>
-    <dataField name="Sum of Responder" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="1" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB4D6693-D05E-4765-8A8D-A6BF4F501020}" name="PivotTable20" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showError="1" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Score">
-  <location ref="F26:I42" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56C418BC-43AD-44D7-AEB0-57DDC783444B}" name="PivotTable13" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Score">
+  <location ref="A5:C17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="82">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -16300,18 +16121,202 @@
     <pivotField showAll="0"/>
     <pivotField numFmtId="166" showAll="0"/>
     <pivotField dataField="1" numFmtId="166" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="6"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="NPS " fld="81" baseField="0" baseItem="0" numFmtId="166"/>
+    <dataField name="Responders" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="5">
+      <pivotArea field="7" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="1" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{512A6131-A5AB-4514-8174-F6C4856C9EDC}" name="PivotTable19" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Score">
+  <location ref="X5:Z20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="82">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField dataField="1" numFmtId="166" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -16377,24 +16382,22 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="16">
-        <item x="14"/>
+      <items count="15">
+        <item x="10"/>
         <item x="7"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="1"/>
         <item x="4"/>
-        <item x="1"/>
+        <item x="13"/>
+        <item x="2"/>
         <item x="9"/>
-        <item x="11"/>
-        <item x="2"/>
+        <item x="5"/>
         <item x="3"/>
         <item x="6"/>
         <item x="8"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="12"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -16403,12 +16406,13 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="75"/>
+    <field x="74"/>
   </rowFields>
-  <rowItems count="16">
+  <rowItems count="15">
     <i>
       <x/>
     </i>
@@ -16451,9 +16455,6 @@
     <i>
       <x v="13"/>
     </i>
-    <i>
-      <x v="14"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -16461,36 +16462,18 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="2">
     <i>
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
     </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
   </colItems>
-  <pageFields count="1">
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="3">
+  <dataFields count="2">
     <dataField name="NPS " fld="81" baseField="0" baseItem="0" numFmtId="166"/>
-    <dataField name="Responders" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Average of % from original " fld="18" subtotal="average" baseField="75" baseItem="0" numFmtId="9"/>
+    <dataField name="Sum of Responder" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="1">
-    <format dxfId="5">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
   <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="1" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -16504,8 +16487,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5C267772-C514-4769-8F6B-AC89CA9FA346}" name="PivotTable14" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Score">
-  <location ref="F5:I9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E379B46-FAF1-48A9-8DC7-A8CA545B787E}" name="PivotTable17" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showError="1" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Score">
+  <location ref="P5:S11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="82">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -16708,13 +16691,26 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0" sortType="descending">
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="4">
+      <items count="6">
+        <item x="1"/>
+        <item x="3"/>
         <item x="2"/>
-        <item x="1"/>
         <item x="0"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -16725,13 +16721,12 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="72"/>
+    <field x="73"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="6">
     <i>
       <x/>
     </i>
@@ -16740,6 +16735,12 @@
     </i>
     <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -16765,7 +16766,7 @@
   <dataFields count="3">
     <dataField name="NPS " fld="81" baseField="0" baseItem="0" numFmtId="166"/>
     <dataField name="Responders" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Average of % from original " fld="18" subtotal="average" baseField="72" baseItem="0" numFmtId="9"/>
+    <dataField name="Average of % from original " fld="18" subtotal="average" baseField="73" baseItem="2" numFmtId="9"/>
   </dataFields>
   <formats count="1">
     <format dxfId="6">
@@ -16791,8 +16792,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABD0230C-1B07-447E-909C-0A7273765C6F}" name="PivotTable18" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showError="1" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Score">
-  <location ref="A26:D41" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{82AF9635-F51E-4B57-AEE7-5326D9523D8D}" name="PivotTable16" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showError="1" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Score">
+  <location ref="K5:N20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="82">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -16995,7 +16996,24 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0" sortType="descending">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="15">
+        <item x="7"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
           <references count="1">
@@ -17009,25 +17027,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="15">
-        <item x="10"/>
-        <item x="7"/>
-        <item x="12"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="13"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -17037,9 +17037,33 @@
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="74"/>
+    <field x="70"/>
   </rowFields>
   <rowItems count="15">
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
     <i>
       <x/>
     </i>
@@ -17047,40 +17071,16 @@
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
+      <x v="9"/>
     </i>
     <i>
       <x v="5"/>
     </i>
     <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
       <x v="10"/>
     </i>
     <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
+      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -17106,7 +17106,7 @@
   <dataFields count="3">
     <dataField name="NPS " fld="81" baseField="0" baseItem="0" numFmtId="166"/>
     <dataField name="Responders" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Average of % from original " fld="18" subtotal="average" baseField="74" baseItem="0" numFmtId="9"/>
+    <dataField name="Average of % from original " fld="18" subtotal="average" baseField="70" baseItem="13" numFmtId="9"/>
   </dataFields>
   <formats count="1">
     <format dxfId="7">
@@ -17431,7 +17431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509F30F6-F055-493D-AFEF-82DF5C3485A3}">
   <dimension ref="A2:Z54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -18815,10 +18815,10 @@
   <dimension ref="A1:CH130"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BK4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="BT4" sqref="BT4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35244,11 +35244,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
-      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
+      <selection pane="bottomRight" activeCell="BS11" sqref="BS11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -46615,6 +46615,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="78fe616b-2e84-46eb-9c50-7c793425a1aa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9b3d2e4f-c97c-4f99-af2b-7b3c94c87eb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004C20CD98068CB74D987358F23E079522" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8702ae9e66946b812977aab1f2282470">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="78fe616b-2e84-46eb-9c50-7c793425a1aa" xmlns:ns3="9b3d2e4f-c97c-4f99-af2b-7b3c94c87eb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1ff78ba4485d7a6deecc5c84ace50ee" ns2:_="" ns3:_="">
     <xsd:import namespace="78fe616b-2e84-46eb-9c50-7c793425a1aa"/>
@@ -46851,17 +46862,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="78fe616b-2e84-46eb-9c50-7c793425a1aa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9b3d2e4f-c97c-4f99-af2b-7b3c94c87eb7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D46B291-6DC4-461D-A755-A4C3F927627F}">
   <ds:schemaRefs>
@@ -46871,6 +46871,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D46F5253-1145-4E06-9DC7-B7E45E6C719B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="78fe616b-2e84-46eb-9c50-7c793425a1aa"/>
+    <ds:schemaRef ds:uri="9b3d2e4f-c97c-4f99-af2b-7b3c94c87eb7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D75D2A7-06DA-4125-BB74-5E56AB495CFD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -46887,15 +46898,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D46F5253-1145-4E06-9DC7-B7E45E6C719B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="78fe616b-2e84-46eb-9c50-7c793425a1aa"/>
-    <ds:schemaRef ds:uri="9b3d2e4f-c97c-4f99-af2b-7b3c94c87eb7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>